--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20242.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,144 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>COTLAME</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>NIETO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TENORIO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ZOQUITECATL</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>CHACON</t>
-  </si>
-  <si>
-    <t>VAS</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>CHIMALHUA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>SALMERON</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>IRVING JESUS</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>GABRIEL URYEL</t>
-  </si>
-  <si>
-    <t>SERGIO ALAN</t>
-  </si>
-  <si>
-    <t>ROSMELY LEILANI</t>
-  </si>
-  <si>
-    <t>ALEXIS GABRIEL</t>
-  </si>
-  <si>
-    <t>MARTIN ERNESTO</t>
-  </si>
-  <si>
-    <t>ANA MARIA</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL</t>
-  </si>
-  <si>
-    <t>EMERSON IVAN</t>
-  </si>
-  <si>
-    <t>DIEGO ALBERTO</t>
-  </si>
-  <si>
-    <t>KIMBERLY ALISON</t>
-  </si>
-  <si>
-    <t>HEIDI ABRIL</t>
-  </si>
-  <si>
-    <t>MELANI YOSELIN</t>
-  </si>
-  <si>
-    <t>DIANA YURIDIA</t>
-  </si>
-  <si>
-    <t>LUIS ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -664,22 +526,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>78.26000000000001</v>
-      </c>
-      <c r="H4">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -761,16 +617,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>87.5</v>
+      </c>
+      <c r="H2">
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -784,16 +643,19 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>87.5</v>
+      </c>
+      <c r="H3">
+        <v>6.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -804,18 +666,15 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -830,16 +689,19 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>86.95999999999999</v>
+      </c>
+      <c r="H5">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -898,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -924,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>84.38</v>
+        <v>87.5</v>
       </c>
       <c r="H3">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -944,18 +806,15 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -973,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>73.91</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,443 +884,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>24330051920279</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24330051920279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>24330051920372</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24330051920256</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24330051920255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>24330051920267</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>24330051920258</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24330051920265</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>24330051920257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>24330051920270</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24330051920275</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920276</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>24330051920289</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920292</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920311</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>24330051920262</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>24330051920368</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>24330051920272</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>24330051920264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
